--- a/output/missing-values-num_partner_cas.xlsx
+++ b/output/missing-values-num_partner_cas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -20,6 +20,9 @@
     <t xml:space="preserve">num_partner_cas</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1693</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1802</t>
@@ -402,6 +408,18 @@
       </c>
       <c r="B6"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
